--- a/Lab 3/control_store.xlsx
+++ b/Lab 3/control_store.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ffacd89b2f1a651/Documents/Current Classes/ECE 460N/Labs/Lab 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="891" documentId="8_{E8B15512-F0F0-402B-966B-8983E744E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCCB6D0F-1531-41B1-A208-34EE620C0DAF}"/>
+  <xr:revisionPtr revIDLastSave="892" documentId="8_{E8B15512-F0F0-402B-966B-8983E744E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5953A21-0285-4B8B-BFDB-45CF2B45A95B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3040" yWindow="3040" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Store" sheetId="1" r:id="rId1"/>
@@ -533,10 +533,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,8 +854,8 @@
   <dimension ref="A1:AJ65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM54" sqref="AM54"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -875,18 +875,18 @@
       <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="2" t="s">
         <v>67</v>
       </c>
@@ -923,10 +923,10 @@
       <c r="V1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="25"/>
+      <c r="X1" s="26"/>
       <c r="Y1" s="2" t="s">
         <v>80</v>
       </c>
@@ -936,17 +936,17 @@
       <c r="AA1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="25"/>
+      <c r="AC1" s="26"/>
       <c r="AD1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AE1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" s="25"/>
+      <c r="AF1" s="26"/>
       <c r="AG1" s="2" t="s">
         <v>86</v>
       </c>
@@ -961,7 +961,7 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1071,7 +1071,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1401,7 +1401,7 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1511,7 +1511,7 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1621,7 +1621,7 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2171,7 +2171,7 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2281,7 +2281,7 @@
       </c>
     </row>
     <row r="14" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2391,7 +2391,7 @@
       </c>
     </row>
     <row r="15" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2501,7 +2501,7 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2611,7 +2611,7 @@
       </c>
     </row>
     <row r="17" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -2721,7 +2721,7 @@
       </c>
     </row>
     <row r="18" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2831,7 +2831,7 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -2941,7 +2941,7 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -3051,7 +3051,7 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="22" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -3271,7 +3271,7 @@
       </c>
     </row>
     <row r="23" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3381,7 +3381,7 @@
       </c>
     </row>
     <row r="24" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -3491,7 +3491,7 @@
       </c>
     </row>
     <row r="25" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -3601,7 +3601,7 @@
       </c>
     </row>
     <row r="26" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -3711,7 +3711,7 @@
       </c>
     </row>
     <row r="27" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -3931,7 +3931,7 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -4041,7 +4041,7 @@
       </c>
     </row>
     <row r="30" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -4151,7 +4151,7 @@
       </c>
     </row>
     <row r="31" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -4261,7 +4261,7 @@
       </c>
     </row>
     <row r="32" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -4371,7 +4371,7 @@
       </c>
     </row>
     <row r="33" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -4481,7 +4481,7 @@
       </c>
     </row>
     <row r="34" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -4591,7 +4591,7 @@
       </c>
     </row>
     <row r="35" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -4616,7 +4616,7 @@
         <v>91</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>90</v>
@@ -4811,7 +4811,7 @@
       </c>
     </row>
     <row r="37" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">

--- a/Lab 3/control_store.xlsx
+++ b/Lab 3/control_store.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ffacd89b2f1a651/Documents/Current Classes/ECE 460N/Labs/Lab 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="892" documentId="8_{E8B15512-F0F0-402B-966B-8983E744E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5953A21-0285-4B8B-BFDB-45CF2B45A95B}"/>
+  <xr:revisionPtr revIDLastSave="894" documentId="8_{E8B15512-F0F0-402B-966B-8983E744E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73DC779E-86E9-464C-B5A8-B30DBA6065B3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3040" yWindow="3040" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Store" sheetId="1" r:id="rId1"/>
@@ -854,8 +854,8 @@
   <dimension ref="A1:AJ65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:AJ65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -2547,7 +2547,7 @@
         <v>90</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>91</v>
@@ -3377,7 +3377,7 @@
         <v>91</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="10" customHeight="1" x14ac:dyDescent="0.2">
